--- a/excel/dragonEffect.xlsx
+++ b/excel/dragonEffect.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920338B4-AB92-4B43-8F8B-978646743B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40675696-8D3A-4ECC-A698-FED705DE905E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,6 +98,129 @@
   </si>
   <si>
     <t>animation/eft/blood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/skill/anqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_eft_anqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jueji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/skill/bian</t>
+  </si>
+  <si>
+    <t>animation/skill/dao</t>
+  </si>
+  <si>
+    <t>animation/skill/gun</t>
+  </si>
+  <si>
+    <t>animation/skill/jian</t>
+  </si>
+  <si>
+    <t>animation/skill/jueji</t>
+  </si>
+  <si>
+    <t>animation/skill/qiang</t>
+  </si>
+  <si>
+    <t>animation/skill/quan</t>
+  </si>
+  <si>
+    <t>animation/skill/tui</t>
+  </si>
+  <si>
+    <t>animation/skill/zhang</t>
+  </si>
+  <si>
+    <t>animation/skill/zhi</t>
+  </si>
+  <si>
+    <t>animation/skill/zhua</t>
+  </si>
+  <si>
+    <t>skill_eft_bian</t>
+  </si>
+  <si>
+    <t>skill_eft_dao</t>
+  </si>
+  <si>
+    <t>skill_eft_gun</t>
+  </si>
+  <si>
+    <t>skill_eft_jueji</t>
+  </si>
+  <si>
+    <t>skill_eft_qiang</t>
+  </si>
+  <si>
+    <t>skill_eft_quan</t>
+  </si>
+  <si>
+    <t>skill_eft_tui</t>
+  </si>
+  <si>
+    <t>skill_eft_zhang</t>
+  </si>
+  <si>
+    <t>skill_eft_zhi</t>
+  </si>
+  <si>
+    <t>skill_eft_zhua</t>
+  </si>
+  <si>
+    <t>skill_eft_jian</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -433,14 +556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="4" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
@@ -563,24 +687,208 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/dragonEffect.xlsx
+++ b/excel/dragonEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40675696-8D3A-4ECC-A698-FED705DE905E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F66D3A-4E00-4E11-A73A-E0F53478C93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -75,13 +69,6 @@
     <t>jiaxue</t>
   </si>
   <si>
-    <t>animation/eft/heal</t>
-  </si>
-  <si>
-    <t>animation/eft/heal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>clean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -93,18 +80,6 @@
     <t>xixue</t>
   </si>
   <si>
-    <t>animation/eft/heal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/eft/blood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/skill/anqi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>anqi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,39 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>animation/skill/bian</t>
-  </si>
-  <si>
-    <t>animation/skill/dao</t>
-  </si>
-  <si>
-    <t>animation/skill/gun</t>
-  </si>
-  <si>
-    <t>animation/skill/jian</t>
-  </si>
-  <si>
-    <t>animation/skill/jueji</t>
-  </si>
-  <si>
-    <t>animation/skill/qiang</t>
-  </si>
-  <si>
-    <t>animation/skill/quan</t>
-  </si>
-  <si>
-    <t>animation/skill/tui</t>
-  </si>
-  <si>
-    <t>animation/skill/zhang</t>
-  </si>
-  <si>
-    <t>animation/skill/zhi</t>
-  </si>
-  <si>
-    <t>animation/skill/zhua</t>
-  </si>
-  <si>
     <t>skill_eft_bian</t>
   </si>
   <si>
@@ -221,6 +163,78 @@
   </si>
   <si>
     <t>skill_eft_jian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eft/heal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eft/heal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eft/blood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/anqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/bian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/dao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/gun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/jian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/jueji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/qiang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/quan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/tui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/zhang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/zhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill/zhua</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -558,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -567,6 +581,7 @@
     <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -583,7 +598,9 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -603,7 +620,9 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -615,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -623,7 +642,9 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -635,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -643,7 +664,9 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -652,242 +675,280 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
   </sheetData>
